--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48926DD-F1C2-4133-BFFC-E1C0D645CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF3F24-27D3-44C3-872A-7B816D1840EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Keyword</t>
   </si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
   </si>
 </sst>
 </file>
@@ -135,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,15 +170,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +512,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -526,9 +550,23 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF3F24-27D3-44C3-872A-7B816D1840EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61B774-1BCA-4F70-8AE9-5B995B51679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23ABE68-F70F-40C6-96AF-19103EF89B64}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
